--- a/Upload/Example_Input.xlsx
+++ b/Upload/Example_Input.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3280" yWindow="5600" windowWidth="25440" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1" iterateDelta="0.0001"/>
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -681,9 +681,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Upload/Example_Input.xlsx
+++ b/Upload/Example_Input.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3280" yWindow="5600" windowWidth="25440" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3280" yWindow="3340" windowWidth="25440" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -446,13 +446,13 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col width="24.33203125" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="62.6640625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -478,7 +478,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>html</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">

--- a/Upload/Example_Input.xlsx
+++ b/Upload/Example_Input.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3280" yWindow="3340" windowWidth="25440" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -681,9 +681,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
